--- a/4_Data_Extraction/4_2_Symptoms/4_2_2_Anxiety/4_2_2_2 Inter Scales_Items Combining/4_2_2_2_1_First Trial/Anxiety_Raw_Data_Specific Symptoms.xlsx
+++ b/4_Data_Extraction/4_2_Symptoms/4_2_2_Anxiety/4_2_2_2 Inter Scales_Items Combining/4_2_2_2_1_First Trial/Anxiety_Raw_Data_Specific Symptoms.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y't\Desktop\MH_CPL\4_Data_Extraction\4_2_Symptoms\4_2_2_Anxiety\4_2_2_3_Inter Scales_Items Combining\4_2_2_3_1_First Trial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y't\Desktop\MH_CPL\4_Data_Extraction\4_2_Symptoms\4_2_2_Anxiety\4_2_2_2 Inter Scales_Items Combining\4_2_2_2_1_First Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F64D6A3-0ABD-47BB-8681-E95F20699FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A4BE11-0774-4C55-A488-5786AC8AE3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="之前讨论后的全部症状" sheetId="1" r:id="rId1"/>
+    <sheet name="只包括特殊症状的结果" sheetId="2" r:id="rId2"/>
     <sheet name="抑郁的结果" sheetId="5" r:id="rId3"/>
     <sheet name="汪浩远的结果" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -6155,7 +6155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF42"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -8663,7 +8663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B9576A-512F-4AEC-9E1A-4525DC5685E3}">
   <dimension ref="A1:DQ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -12353,115 +12353,115 @@
         <v>320</v>
       </c>
       <c r="D89" s="74">
-        <f>D87-D88</f>
+        <f t="shared" ref="D89:AE89" si="0">D87-D88</f>
         <v>19</v>
       </c>
       <c r="E89" s="74">
-        <f>E87-E88</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F89" s="74">
-        <f>F87-F88</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G89" s="74">
-        <f>G87-G88</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H89" s="74">
-        <f>H87-H88</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I89" s="74">
-        <f>I87-I88</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="J89" s="74">
-        <f>J87-J88</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K89" s="74">
-        <f>K87-K88</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="L89" s="74">
-        <f>L87-L88</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M89" s="74">
-        <f>M87-M88</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N89" s="74">
-        <f>N87-N88</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="O89" s="74">
-        <f>O87-O88</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="P89" s="74">
-        <f>P87-P88</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="Q89" s="74">
-        <f>Q87-Q88</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="R89" s="74">
-        <f>R87-R88</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="S89" s="74">
-        <f>S87-S88</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="T89" s="74">
-        <f>T87-T88</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="U89" s="74">
-        <f>U87-U88</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="V89" s="74">
-        <f>V87-V88</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="W89" s="74">
-        <f>W87-W88</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="X89" s="74">
-        <f>X87-X88</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y89" s="74">
-        <f>Y87-Y88</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="Z89" s="74">
-        <f>Z87-Z88</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA89" s="74">
-        <f>AA87-AA88</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AB89" s="74">
-        <f>AB87-AB88</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AC89" s="74">
-        <f>AC87-AC88</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AD89" s="74">
-        <f>AD87-AD88</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AE89" s="74">
-        <f>AE87-AE88</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
